--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.0895</v>
+        <v>-12.2813</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.38409999999999</v>
+        <v>-21.3803</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.99519999999999</v>
+        <v>-12.0628</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.429599999999988</v>
+        <v>-8.671699999999989</v>
       </c>
     </row>
     <row r="25">
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.5484</v>
+        <v>-13.89599999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.5523</v>
+        <v>-21.421</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.0026</v>
+        <v>-12.7838</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.98420000000001</v>
+        <v>-12.3444</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.8314</v>
+        <v>-20.0209</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.686</v>
+        <v>-19.9686</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.750900000000001</v>
+        <v>-7.678100000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.69070000000001</v>
+        <v>-12.8584</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.89510000000001</v>
+        <v>-21.98440000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.965500000000003</v>
+        <v>-7.878900000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7958</v>
+        <v>-21.74409999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.8918</v>
+        <v>-12.9889</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.24719999999999</v>
+        <v>-22.25200000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.60199999999996</v>
+        <v>-21.56989999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.70399999999997</v>
+        <v>-21.69859999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.60469999999999</v>
+        <v>-21.77579999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.7116</v>
+        <v>-7.505100000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.933599999999997</v>
+        <v>-9.081099999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.713100000000001</v>
+        <v>-8.738300000000002</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.4964</v>
+        <v>-8.6388</v>
       </c>
     </row>
     <row r="87">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.46359999999998</v>
+        <v>-20.70139999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.305599999999991</v>
+        <v>-8.432199999999989</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.28909999999999</v>
+        <v>-11.46</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.81489999999999</v>
+        <v>-21.85679999999999</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.2953</v>
+        <v>-13.20489999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.115</v>
+        <v>-13.1018</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.9447</v>
+        <v>-7.820700000000003</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.45239999999999</v>
+        <v>-21.38429999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
